--- a/biology/Zoologie/Avelino_Barrio/Avelino_Barrio.xlsx
+++ b/biology/Zoologie/Avelino_Barrio/Avelino_Barrio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avelino Barrio est un  médecin et un herpétologiste argentin d’origine espagnole, né le 10 août 1920 à La Corogne et mort le 30 juin 1979 à Buenos Aires.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Colegio Nacional de Buenos Aires et obtient son titre de docteur à l’université de la ville de 1948 à 1954. Il passe l’essentiel de sa carrière dans cette université ainsi qu’à l’Institut national de microbiologie. En 1969, il fonde le Centro Nacional de Investigaciones Iologícas et se consacre à l’étude des venins. Outre des travaux de taxinomie, il étudie le chant des grenouilles.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology,  Society for the study of amphibians and reptiles.
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’herpétologie                    </t>
